--- a/test/case/driver_app_ui_testcase.xlsx
+++ b/test/case/driver_app_ui_testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15280"/>
+    <workbookView windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - Driver app UI测试用例" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Driver app UI测试用例</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Driver_App</t>
   </si>
   <si>
-    <t>登录</t>
+    <t>sign_in</t>
   </si>
   <si>
     <t>driver_app_update_password.mqt</t>
@@ -129,7 +129,7 @@
     </r>
   </si>
   <si>
-    <t>Rides</t>
+    <t>Available</t>
   </si>
   <si>
     <t>driver_app_Ride_Accept.mqt</t>
@@ -138,11 +138,329 @@
     <t>available 接单</t>
   </si>
   <si>
-    <t>1.正常接单成功（列表接单，详情接单）
-2.设置接单开始时间
-3.两个车队同时接取同一笔单
-4.返程订单，3小时内有行程订单接单
-5.价格变更接单</t>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常接单成功（列表接单，详情接单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置接单开始时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两个车队同时接取同一笔单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返程订单，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时内有行程订单接单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>价格变更接单</t>
+    </r>
+  </si>
+  <si>
+    <t>Booked</t>
+  </si>
+  <si>
+    <t>driver_app_Ride_More1.mqt</t>
+  </si>
+  <si>
+    <r>
+      <t>Booked more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮订单流程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>One way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单，已创建回程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>One way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:Unable to provide service,Customer on show,At destination
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1:booked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>past</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单详情中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮，已经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮中的选项是否正常显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2:past list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单状态</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -150,12 +468,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -182,18 +500,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,11 +520,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,25 +566,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,8 +582,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -274,22 +607,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +628,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -318,16 +650,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,6 +663,12 @@
       <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -367,181 +697,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +972,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -657,7 +987,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -695,6 +1025,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -724,212 +1113,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,13 +1294,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,10 +1309,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2150,22 +2480,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.3482142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.2946428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.6071428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.9553571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.9464285714286" style="1" customWidth="1"/>
     <col min="6" max="16383" width="16.3482142857143" style="1" customWidth="1"/>
     <col min="16384" max="16384" width="16.3482142857143" style="1"/>
@@ -2223,16 +2553,16 @@
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="15"/>
@@ -2241,16 +2571,16 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="16"/>
@@ -2259,19 +2589,37 @@
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="15"/>
+    </row>
+    <row r="7" ht="95" customHeight="1" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test/case/driver_app_ui_testcase.xlsx
+++ b/test/case/driver_app_ui_testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15220"/>
+    <workbookView windowHeight="15180"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - Driver app UI测试用例" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Driver app UI测试用例</t>
   </si>
@@ -66,6 +66,9 @@
 4.员工名称登录(gangye)</t>
   </si>
   <si>
+    <t>driver_app_employee_emailLogin.mqt</t>
+  </si>
+  <si>
     <t>员工邮箱登录</t>
   </si>
   <si>
@@ -139,6 +142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -253,6 +262,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>Booked more</t>
     </r>
     <r>
@@ -267,6 +282,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -468,10 +489,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -507,22 +528,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,16 +549,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,17 +578,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,29 +611,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,6 +639,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -650,8 +662,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,13 +718,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,13 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,145 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,19 +1040,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,6 +1066,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,54 +1126,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,148 +1139,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2487,7 +2508,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2575,13 +2596,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -2590,16 +2611,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="15"/>
     </row>
@@ -2608,16 +2629,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="15"/>
     </row>

--- a/test/case/driver_app_ui_testcase.xlsx
+++ b/test/case/driver_app_ui_testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15180"/>
+    <workbookView windowHeight="15740"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - Driver app UI测试用例" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Driver app UI测试用例</t>
   </si>
@@ -483,16 +483,222 @@
       <t>订单状态</t>
     </r>
   </si>
+  <si>
+    <t>drive-app-cancel.mqt</t>
+  </si>
+  <si>
+    <r>
+      <t>cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单显示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试场景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: booked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单详情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on my way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取订单状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时内获取订单状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单状态，取消订单弹框</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -528,36 +734,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,77 +747,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,9 +762,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +802,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,31 +924,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +1032,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,133 +1080,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,39 +1243,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1094,17 +1267,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,6 +1293,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1139,148 +1345,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2501,17 +2707,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.3482142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.2946428571429" style="1" customWidth="1"/>
@@ -2641,6 +2847,24 @@
         <v>25</v>
       </c>
       <c r="F7" s="15"/>
+    </row>
+    <row r="8" ht="92" customHeight="1" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test/case/driver_app_ui_testcase.xlsx
+++ b/test/case/driver_app_ui_testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15740"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - Driver app UI测试用例" sheetId="1" r:id="rId1"/>
@@ -142,12 +142,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -488,6 +482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>cancel</t>
     </r>
     <r>
@@ -502,6 +502,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -695,10 +701,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -734,16 +740,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,40 +762,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,31 +813,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,15 +831,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,15 +845,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,31 +924,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,151 +1098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,6 +1249,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1258,20 +1297,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1300,36 +1336,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1345,148 +1351,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2714,7 +2720,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>

--- a/test/case/driver_app_ui_testcase.xlsx
+++ b/test/case/driver_app_ui_testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15200"/>
+    <workbookView windowHeight="15740"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - Driver app UI测试用例" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Driver app UI测试用例</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -252,26 +258,26 @@
     <t>Booked</t>
   </si>
   <si>
-    <t>driver_app_Ride_More1.mqt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Booked more</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>按钮订单流程</t>
+    <t>driver-app-cancel.mqt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单显示</t>
     </r>
   </si>
   <si>
@@ -291,34 +297,34 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>订单类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>One way</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单，已创建回程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>One way</t>
+      <t>测试场景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: booked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单详情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -328,6 +334,24 @@
         <charset val="134"/>
       </rPr>
       <t>订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面</t>
     </r>
     <r>
       <rPr>
@@ -346,6 +370,194 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on my way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取订单状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时内获取订单状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单状态，取消订单弹框</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>driver_app_Ride_More_One_way.mqt</t>
+  </si>
+  <si>
+    <r>
+      <t>Booked more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>One way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单流程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>One way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>订单流程</t>
     </r>
     <r>
@@ -478,36 +690,42 @@
     </r>
   </si>
   <si>
-    <t>drive-app-cancel.mqt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cancel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单显示</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
+    <t>driver_app_Ride_More_One_way_trip.mqt</t>
+  </si>
+  <si>
+    <r>
+      <t>Booked more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">One way </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已创建回程订单流程</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>1.</t>
     </r>
     <r>
@@ -517,61 +735,25 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>测试场景</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: booked</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单详情</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页面</t>
+      <t>订单类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">One way </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已创建回程订单</t>
     </r>
     <r>
       <rPr>
@@ -590,34 +772,16 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>点击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>on my way</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取订单状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t>订单流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:Unable to provide service,Customer on show,At destination
 3.</t>
     </r>
     <r>
@@ -627,25 +791,79 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>订单进入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小时内获取订单状态</t>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1:booked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>past</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单详情中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮，已经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮中的选项是否正常显示</t>
     </r>
     <r>
       <rPr>
@@ -673,16 +891,47 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单状态，取消订单弹框</t>
+      <t>2:past list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单状态</t>
+    </r>
+  </si>
+  <si>
+    <t>driver_app_Ride_More_By_the_hour.mqt</t>
+  </si>
+  <si>
+    <r>
+      <t>Booked more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮按时间订单流程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单类型：按时间订单</t>
     </r>
     <r>
       <rPr>
@@ -692,7 +941,750 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:Unable to provide service,Customer on show,At destination
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1:booked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>past</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单详情中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮，已经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮中的选项是否正常显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2:past list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单状态</t>
+    </r>
+  </si>
+  <si>
+    <t>driver_app_Ride_More_By_day.mqt</t>
+  </si>
+  <si>
+    <r>
+      <t>Booked more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮多日程订单流程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单类型：多日程订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:Unable to provide service,Customer on show,At destination
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1:booked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>past</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单详情中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮，已经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮中的选项是否正常显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2:past list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单状态</t>
+    </r>
+  </si>
+  <si>
+    <t>driver_app_Ride_More_ET_ride.mqt</t>
+  </si>
+  <si>
+    <r>
+      <t>Booked more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ET ride</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单流程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ET ride</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:Unable to provide service,Customer on show,At destination
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1:booked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>past</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单详情中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮，已经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮中的选项是否正常显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2:past list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单状态</t>
+    </r>
+  </si>
+  <si>
+    <t>driver_app_Ride_More_ET_ride_trip.mqt</t>
+  </si>
+  <si>
+    <r>
+      <t>Booked more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ET ride </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已创建回程订单流程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ET ride </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已创建回程订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:Unable to provide service,Customer on show,At destination
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1:booked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>past</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单详情中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮，已经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮中的选项是否正常显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2:past list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单状态</t>
     </r>
   </si>
 </sst>
@@ -702,8 +1694,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -740,7 +1732,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,36 +1754,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,8 +1793,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,7 +1810,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,9 +1823,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,23 +1861,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,6 +1870,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,19 +1916,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,13 +1946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +1964,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,19 +1988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,19 +2012,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,25 +2078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,43 +2096,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,8 +2244,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,8 +2253,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1297,36 +2319,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1351,148 +2343,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2713,22 +3705,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.3482142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.2946428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6071428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.9553571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5089285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.8839285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.9464285714286" style="1" customWidth="1"/>
     <col min="6" max="16383" width="16.3482142857143" style="1" customWidth="1"/>
     <col min="16384" max="16384" width="16.3482142857143" style="1"/>
@@ -2871,6 +3863,96 @@
         <v>28</v>
       </c>
       <c r="F8" s="15"/>
+    </row>
+    <row r="9" ht="87" customHeight="1" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" ht="87" customHeight="1" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" ht="89" customHeight="1" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" ht="87" customHeight="1" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" ht="87" customHeight="1" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test/case/driver_app_ui_testcase.xlsx
+++ b/test/case/driver_app_ui_testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15740"/>
+    <workbookView windowWidth="28000" windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - Driver app UI测试用例" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Driver app UI测试用例</t>
   </si>
@@ -255,39 +255,13 @@
     </r>
   </si>
   <si>
-    <t>Booked</t>
-  </si>
-  <si>
-    <t>driver-app-cancel.mqt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cancel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单显示</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
+    <t>driver_app_new_account_accept.mqt</t>
+  </si>
+  <si>
+    <t>新注册账号接单</t>
+  </si>
+  <si>
+    <r>
       <t>1.</t>
     </r>
     <r>
@@ -297,25 +271,25 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>测试场景</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: booked</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单详情</t>
+      <t>提示完善</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
     </r>
     <r>
       <rPr>
@@ -333,25 +307,25 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页面</t>
+      <t>填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
     </r>
     <r>
       <rPr>
@@ -370,25 +344,61 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>点击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>on my way</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取订单状态</t>
+      <t>提示完善</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">driver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
     </r>
     <r>
       <rPr>
@@ -407,25 +417,7 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>订单进入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小时内获取订单状态</t>
+      <t>提示待审核，审核通过</t>
     </r>
     <r>
       <rPr>
@@ -444,6 +436,254 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
+      <t>刷新页面接单成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查弹框</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>title,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">booked </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单</t>
+    </r>
+  </si>
+  <si>
+    <t>Booked</t>
+  </si>
+  <si>
+    <t>driver-app-cancel.mqt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单显示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试场景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: booked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单详情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on my way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取订单状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时内获取订单状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>检查点</t>
     </r>
     <r>
@@ -480,6 +720,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>Booked more</t>
     </r>
     <r>
@@ -512,6 +758,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -694,6 +946,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>Booked more</t>
     </r>
     <r>
@@ -726,6 +984,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -908,6 +1172,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>Booked more</t>
     </r>
     <r>
@@ -922,6 +1192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1086,6 +1362,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>Booked more</t>
     </r>
     <r>
@@ -1100,6 +1382,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1264,6 +1552,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>Booked more</t>
     </r>
     <r>
@@ -1296,6 +1590,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1478,6 +1778,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>Booked more</t>
     </r>
     <r>
@@ -1510,6 +1816,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1693,10 +2005,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1727,8 +2039,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1746,17 +2071,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1768,19 +2086,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1793,10 +2116,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1817,16 +2148,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1838,23 +2162,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1867,31 +2200,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1922,19 +2234,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1946,31 +2270,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,7 +2330,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,13 +2354,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2018,61 +2390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,19 +2408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2244,8 +2556,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2253,8 +2565,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2304,30 +2640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2343,152 +2655,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2526,6 +2838,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3705,14 +4020,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
@@ -3752,7 +4067,7 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3772,7 +4087,7 @@
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" ht="71.45" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
@@ -3790,7 +4105,7 @@
       <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" ht="65.3" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
@@ -3808,7 +4123,7 @@
       <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" ht="82.35" customHeight="1" spans="1:6">
       <c r="A6" s="8" t="s">
@@ -3823,136 +4138,154 @@
       <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="16"/>
     </row>
-    <row r="7" ht="95" customHeight="1" spans="1:6">
+    <row r="7" ht="82.35" customHeight="1" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="16"/>
     </row>
-    <row r="8" ht="92" customHeight="1" spans="1:6">
+    <row r="8" ht="63" customHeight="1" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
-    <row r="9" ht="87" customHeight="1" spans="1:6">
+    <row r="9" ht="92" customHeight="1" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" ht="87" customHeight="1" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="16"/>
     </row>
-    <row r="11" ht="89" customHeight="1" spans="1:6">
+    <row r="11" ht="87" customHeight="1" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
-    <row r="12" ht="87" customHeight="1" spans="1:6">
+    <row r="12" ht="89" customHeight="1" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" ht="87" customHeight="1" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" ht="87" customHeight="1" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test/case/driver_app_ui_testcase.xlsx
+++ b/test/case/driver_app_ui_testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15140"/>
+    <workbookView windowHeight="15080"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - Driver app UI测试用例" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Driver app UI测试用例</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1997,6 +2003,297 @@
         <charset val="134"/>
       </rPr>
       <t>订单状态</t>
+    </r>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>driver_app_account_add.mqt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Account </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同国家新增账户</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BSH country fleet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BSH country fleet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>account
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建JPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> country fleet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录JPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> country fleet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>account
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建Mexico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> country fleet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录Mexico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> country fleet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>account</t>
     </r>
   </si>
 </sst>
@@ -2005,9 +2302,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -2056,8 +2353,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2072,15 +2385,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2093,30 +2420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -2128,6 +2433,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2154,31 +2467,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -2187,7 +2484,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2228,6 +2525,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2240,19 +2561,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2264,13 +2591,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2288,49 +2663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2342,61 +2675,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2408,7 +2705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,24 +2861,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2625,6 +2909,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2640,13 +2933,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2655,145 +2952,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4020,14 +4317,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
@@ -4287,6 +4584,24 @@
       </c>
       <c r="F14" s="16"/>
     </row>
+    <row r="15" ht="103" customHeight="1" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
